--- a/Code/Results/Cases/Case_5_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8698802211102645</v>
+        <v>0.5701824574022964</v>
       </c>
       <c r="C2">
-        <v>0.3454587812148304</v>
+        <v>0.2533922926086234</v>
       </c>
       <c r="D2">
-        <v>0.02778750052789292</v>
+        <v>0.0417490464994188</v>
       </c>
       <c r="E2">
-        <v>0.1042976211943589</v>
+        <v>0.1189858056446305</v>
       </c>
       <c r="F2">
-        <v>3.089120876260836</v>
+        <v>3.500932584304053</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.701801131206295</v>
+        <v>1.895790595755926</v>
       </c>
       <c r="J2">
-        <v>0.2290294787196103</v>
+        <v>0.2297640702139745</v>
       </c>
       <c r="K2">
-        <v>1.206540439944519</v>
+        <v>0.8222846735845906</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7531263460948878</v>
+        <v>0.5451197963535037</v>
       </c>
       <c r="C3">
-        <v>0.3021024252078348</v>
+        <v>0.2438347924550044</v>
       </c>
       <c r="D3">
-        <v>0.02396553815322733</v>
+        <v>0.04168486166643959</v>
       </c>
       <c r="E3">
-        <v>0.09238727508382993</v>
+        <v>0.1169706671629136</v>
       </c>
       <c r="F3">
-        <v>2.867701360442879</v>
+        <v>3.449881042584778</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.598091586925349</v>
+        <v>1.869807077351822</v>
       </c>
       <c r="J3">
-        <v>0.2053150154869172</v>
+        <v>0.2248288191615941</v>
       </c>
       <c r="K3">
-        <v>1.04703005250559</v>
+        <v>0.7878307064500234</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6825480965256077</v>
+        <v>0.5301823612165606</v>
       </c>
       <c r="C4">
-        <v>0.2760363454746368</v>
+        <v>0.2381351670242395</v>
       </c>
       <c r="D4">
-        <v>0.02164454428990581</v>
+        <v>0.04168964013971177</v>
       </c>
       <c r="E4">
-        <v>0.08524012128449243</v>
+        <v>0.115810200763061</v>
       </c>
       <c r="F4">
-        <v>2.735750415435859</v>
+        <v>3.419747242399623</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.536379405333079</v>
+        <v>1.854380392277804</v>
       </c>
       <c r="J4">
-        <v>0.1911146789773497</v>
+        <v>0.2219213151690909</v>
       </c>
       <c r="K4">
-        <v>0.9507662588618757</v>
+        <v>0.7672945963020368</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6540320127670896</v>
+        <v>0.5242086208195929</v>
       </c>
       <c r="C5">
-        <v>0.2655379502522521</v>
+        <v>0.2358548031504313</v>
       </c>
       <c r="D5">
-        <v>0.0207044210291194</v>
+        <v>0.04170272962879196</v>
       </c>
       <c r="E5">
-        <v>0.08236528984851077</v>
+        <v>0.1153566117167522</v>
       </c>
       <c r="F5">
-        <v>2.682898262837142</v>
+        <v>3.407771354022216</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.511683042831024</v>
+        <v>1.848225932598041</v>
       </c>
       <c r="J5">
-        <v>0.1854097642617063</v>
+        <v>0.2207672744177387</v>
       </c>
       <c r="K5">
-        <v>0.911909806357869</v>
+        <v>0.7590813423156249</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6493108046546752</v>
+        <v>0.5232235325287604</v>
       </c>
       <c r="C6">
-        <v>0.2638017348567701</v>
+        <v>0.2354786998621705</v>
       </c>
       <c r="D6">
-        <v>0.02054863740084656</v>
+        <v>0.04170557700537003</v>
       </c>
       <c r="E6">
-        <v>0.08189009112614443</v>
+        <v>0.1152824596107749</v>
       </c>
       <c r="F6">
-        <v>2.67417527131208</v>
+        <v>3.405801094338642</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.507608336455803</v>
+        <v>1.847211947982871</v>
       </c>
       <c r="J6">
-        <v>0.1844671654162866</v>
+        <v>0.2205775042575269</v>
       </c>
       <c r="K6">
-        <v>0.9054787980943217</v>
+        <v>0.7577269161319293</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6821625689285042</v>
+        <v>0.5301013382415078</v>
       </c>
       <c r="C7">
-        <v>0.2758942793993242</v>
+        <v>0.2381042422406949</v>
       </c>
       <c r="D7">
-        <v>0.02163184334264656</v>
+        <v>0.04168977151416442</v>
       </c>
       <c r="E7">
-        <v>0.08520120277534815</v>
+        <v>0.1158040053284957</v>
       </c>
       <c r="F7">
-        <v>2.735034022903918</v>
+        <v>3.41958450219289</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.53604456597354</v>
+        <v>1.85429685720446</v>
       </c>
       <c r="J7">
-        <v>0.1910374202994021</v>
+        <v>0.2219056268028297</v>
       </c>
       <c r="K7">
-        <v>0.9502407845797336</v>
+        <v>0.7671832006478496</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8293721227583717</v>
+        <v>0.5614471710730982</v>
       </c>
       <c r="C8">
-        <v>0.3303844361654171</v>
+        <v>0.2500617569173187</v>
       </c>
       <c r="D8">
-        <v>0.02646387267168393</v>
+        <v>0.04171776230806756</v>
       </c>
       <c r="E8">
-        <v>0.100153998829299</v>
+        <v>0.1182750306622999</v>
       </c>
       <c r="F8">
-        <v>3.011890291151204</v>
+        <v>3.483077886625182</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.665607486643253</v>
+        <v>1.886721693656966</v>
       </c>
       <c r="J8">
-        <v>0.2207724120401764</v>
+        <v>0.2280368672850273</v>
       </c>
       <c r="K8">
-        <v>1.151162210636983</v>
+        <v>0.8102763745903871</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.128527494627491</v>
+        <v>0.6265030687049205</v>
       </c>
       <c r="C9">
-        <v>0.4424274756411535</v>
+        <v>0.2748573446419869</v>
       </c>
       <c r="D9">
-        <v>0.03618164898078646</v>
+        <v>0.04212205401947244</v>
       </c>
       <c r="E9">
-        <v>0.1309912812212488</v>
+        <v>0.1237313383505985</v>
       </c>
       <c r="F9">
-        <v>3.590869191373315</v>
+        <v>3.617255044025541</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.937375605246231</v>
+        <v>1.954519826788541</v>
       </c>
       <c r="J9">
-        <v>0.2823784956420923</v>
+        <v>0.2410387194016721</v>
       </c>
       <c r="K9">
-        <v>1.560937084181575</v>
+        <v>0.899707573561642</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.357300106019494</v>
+        <v>0.6765029606366113</v>
       </c>
       <c r="C10">
-        <v>0.5291253745734821</v>
+        <v>0.2939095837760703</v>
       </c>
       <c r="D10">
-        <v>0.04352833156377045</v>
+        <v>0.04263066759909862</v>
       </c>
       <c r="E10">
-        <v>0.1548783327068435</v>
+        <v>0.1281143861415117</v>
       </c>
       <c r="F10">
-        <v>4.044874385560462</v>
+        <v>3.721810146115359</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.151056320556179</v>
+        <v>2.006946143028557</v>
       </c>
       <c r="J10">
-        <v>0.3303227981968604</v>
+        <v>0.2511952262827464</v>
       </c>
       <c r="K10">
-        <v>1.875432608235826</v>
+        <v>0.9684466452904132</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.463981264832398</v>
+        <v>0.6997317841500035</v>
       </c>
       <c r="C11">
-        <v>0.5698267286053067</v>
+        <v>0.3027614001304073</v>
       </c>
       <c r="D11">
-        <v>0.04693047776594739</v>
+        <v>0.04290771334405719</v>
       </c>
       <c r="E11">
-        <v>0.1660900685903712</v>
+        <v>0.130190122069564</v>
       </c>
       <c r="F11">
-        <v>4.259302823204735</v>
+        <v>3.770690999427075</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.252118985093588</v>
+        <v>2.031374494124023</v>
       </c>
       <c r="J11">
-        <v>0.3528863900929053</v>
+        <v>0.2559485712980774</v>
       </c>
       <c r="K11">
-        <v>2.022388985153356</v>
+        <v>1.000384079038241</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.504815889400476</v>
+        <v>0.7085976959400568</v>
       </c>
       <c r="C12">
-        <v>0.5854500480545823</v>
+        <v>0.3061401482114263</v>
       </c>
       <c r="D12">
-        <v>0.04822882563320263</v>
+        <v>0.04301916604469369</v>
       </c>
       <c r="E12">
-        <v>0.1703926370561817</v>
+        <v>0.1309879501350579</v>
       </c>
       <c r="F12">
-        <v>4.341794594434759</v>
+        <v>3.789391709831904</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.291019837807369</v>
+        <v>2.040708903699013</v>
       </c>
       <c r="J12">
-        <v>0.3615550214733929</v>
+        <v>0.257767793774434</v>
       </c>
       <c r="K12">
-        <v>2.078688252920159</v>
+        <v>1.012574408519498</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.496000943424804</v>
+        <v>0.7066851630887356</v>
       </c>
       <c r="C13">
-        <v>0.5820754185771193</v>
+        <v>0.3054112814934058</v>
       </c>
       <c r="D13">
-        <v>0.04794873338988737</v>
+        <v>0.04299487219142151</v>
       </c>
       <c r="E13">
-        <v>0.1694633453916907</v>
+        <v>0.1308155988117718</v>
       </c>
       <c r="F13">
-        <v>4.323968351023751</v>
+        <v>3.785355684017958</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.282612495941791</v>
+        <v>2.03869482928539</v>
       </c>
       <c r="J13">
-        <v>0.3596822749248645</v>
+        <v>0.2573751347121487</v>
       </c>
       <c r="K13">
-        <v>2.066532728245846</v>
+        <v>1.009944714275775</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.467331623600586</v>
+        <v>0.7004597912516601</v>
       </c>
       <c r="C14">
-        <v>0.5711076683944327</v>
+        <v>0.3030388344964479</v>
       </c>
       <c r="D14">
-        <v>0.04703708413181573</v>
+        <v>0.04291675167301889</v>
       </c>
       <c r="E14">
-        <v>0.1664428579763495</v>
+        <v>0.1302555234199332</v>
       </c>
       <c r="F14">
-        <v>4.266062609081843</v>
+        <v>3.772225692414281</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.255306278029551</v>
+        <v>2.032140756152913</v>
       </c>
       <c r="J14">
-        <v>0.3535969747199204</v>
+        <v>0.2560978538037801</v>
       </c>
       <c r="K14">
-        <v>2.02700717419944</v>
+        <v>1.001385052669605</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.449829660090586</v>
+        <v>0.6966556467005489</v>
       </c>
       <c r="C15">
-        <v>0.564417955174207</v>
+        <v>0.3015891320610251</v>
       </c>
       <c r="D15">
-        <v>0.04648002250970507</v>
+        <v>0.04286975171924468</v>
       </c>
       <c r="E15">
-        <v>0.1646003656865318</v>
+        <v>0.129913997331073</v>
       </c>
       <c r="F15">
-        <v>4.230766926300788</v>
+        <v>3.764208045039197</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.238664953086086</v>
+        <v>2.028137144620459</v>
       </c>
       <c r="J15">
-        <v>0.3498862434974797</v>
+        <v>0.2553179900152003</v>
       </c>
       <c r="K15">
-        <v>2.002884160824664</v>
+        <v>0.9961545652661812</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.350385867342027</v>
+        <v>0.6749946438270058</v>
       </c>
       <c r="C16">
-        <v>0.5264932519513081</v>
+        <v>0.2933348314471971</v>
       </c>
       <c r="D16">
-        <v>0.04330731774018659</v>
+        <v>0.04261347882226119</v>
       </c>
       <c r="E16">
-        <v>0.1541531714659499</v>
+        <v>0.1279803809254005</v>
       </c>
       <c r="F16">
-        <v>4.031032910836444</v>
+        <v>3.71864228141942</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.144535562702004</v>
+        <v>2.005361403245004</v>
       </c>
       <c r="J16">
-        <v>0.328864697452687</v>
+        <v>0.2508872703327398</v>
       </c>
       <c r="K16">
-        <v>1.865914461801367</v>
+        <v>0.9663729201319313</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.29009058072549</v>
+        <v>0.6618302671423351</v>
       </c>
       <c r="C17">
-        <v>0.5035705686215408</v>
+        <v>0.2883185552115606</v>
       </c>
       <c r="D17">
-        <v>0.04137729863020922</v>
+        <v>0.04246794306956048</v>
       </c>
       <c r="E17">
-        <v>0.1478375299914561</v>
+        <v>0.1268151513384339</v>
       </c>
       <c r="F17">
-        <v>3.910631616700016</v>
+        <v>3.691027520186793</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.087829728409687</v>
+        <v>1.991538045452941</v>
       </c>
       <c r="J17">
-        <v>0.3161724210745405</v>
+        <v>0.2482033238400732</v>
       </c>
       <c r="K17">
-        <v>1.782945725389794</v>
+        <v>0.9482740681225437</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.255652059008213</v>
+        <v>0.6543039791338003</v>
       </c>
       <c r="C18">
-        <v>0.4905029017818663</v>
+        <v>0.2854507147490608</v>
       </c>
       <c r="D18">
-        <v>0.04027276825025439</v>
+        <v>0.04238853543471777</v>
       </c>
       <c r="E18">
-        <v>0.1442369695356334</v>
+        <v>0.1261526464234848</v>
       </c>
       <c r="F18">
-        <v>3.842113133725604</v>
+        <v>3.67526825389632</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.055572175663357</v>
+        <v>1.983641710682463</v>
       </c>
       <c r="J18">
-        <v>0.3089420250820751</v>
+        <v>0.2466721109814785</v>
       </c>
       <c r="K18">
-        <v>1.735584513727446</v>
+        <v>0.9379269138929374</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.24403153065515</v>
+        <v>0.6517635208863055</v>
       </c>
       <c r="C19">
-        <v>0.4860976522386125</v>
+        <v>0.2844826945350007</v>
       </c>
       <c r="D19">
-        <v>0.03989970937375631</v>
+        <v>0.04236238883667909</v>
       </c>
       <c r="E19">
-        <v>0.1430231748141964</v>
+        <v>0.1259296562824446</v>
       </c>
       <c r="F19">
-        <v>3.819035388666578</v>
+        <v>3.669953705260127</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.044709660638972</v>
+        <v>1.980977488366761</v>
       </c>
       <c r="J19">
-        <v>0.3065054804677061</v>
+        <v>0.2461558164631867</v>
       </c>
       <c r="K19">
-        <v>1.719608095967345</v>
+        <v>0.9344343267473221</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.296483676935594</v>
+        <v>0.66322692625576</v>
       </c>
       <c r="C20">
-        <v>0.5059984334247076</v>
+        <v>0.2888507454326259</v>
       </c>
       <c r="D20">
-        <v>0.04158216689217653</v>
+        <v>0.0424829906893649</v>
       </c>
       <c r="E20">
-        <v>0.1485064759188077</v>
+        <v>0.1269383945088478</v>
       </c>
       <c r="F20">
-        <v>3.923371583587141</v>
+        <v>3.693954316266428</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.093828572649471</v>
+        <v>1.99300392105981</v>
       </c>
       <c r="J20">
-        <v>0.3175161950850196</v>
+        <v>0.2484877378484356</v>
       </c>
       <c r="K20">
-        <v>1.791739985625441</v>
+        <v>0.9501942173286864</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.475740119574368</v>
+        <v>0.7022864423291253</v>
       </c>
       <c r="C21">
-        <v>0.574323197259389</v>
+        <v>0.3037349520891723</v>
       </c>
       <c r="D21">
-        <v>0.04730457360732743</v>
+        <v>0.04293952023764547</v>
       </c>
       <c r="E21">
-        <v>0.1673284412890936</v>
+        <v>0.1304197109469598</v>
       </c>
       <c r="F21">
-        <v>4.283034517626817</v>
+        <v>3.776077108309607</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.263309014125866</v>
+        <v>2.034063563755922</v>
       </c>
       <c r="J21">
-        <v>0.3553808654184536</v>
+        <v>0.2564724994060015</v>
       </c>
       <c r="K21">
-        <v>2.038598369410778</v>
+        <v>1.003896616285346</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.595474281941932</v>
+        <v>0.7282201889410942</v>
       </c>
       <c r="C22">
-        <v>0.6202210721710912</v>
+        <v>0.3136186876054694</v>
       </c>
       <c r="D22">
-        <v>0.05110371373522327</v>
+        <v>0.04327600565449785</v>
       </c>
       <c r="E22">
-        <v>0.1799655020552464</v>
+        <v>0.1327636947367736</v>
       </c>
       <c r="F22">
-        <v>4.525714107616977</v>
+        <v>3.830860504690463</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.377791660021671</v>
+        <v>2.061387869039194</v>
       </c>
       <c r="J22">
-        <v>0.380860862365509</v>
+        <v>0.2618031574220652</v>
       </c>
       <c r="K22">
-        <v>2.203773795650307</v>
+        <v>1.039555794536625</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.531311693016505</v>
+        <v>0.7143416618090725</v>
       </c>
       <c r="C23">
-        <v>0.5956001467069143</v>
+        <v>0.3083292149437682</v>
       </c>
       <c r="D23">
-        <v>0.0490701228309689</v>
+        <v>0.04309293793789237</v>
       </c>
       <c r="E23">
-        <v>0.173187511834584</v>
+        <v>0.1315063697509657</v>
       </c>
       <c r="F23">
-        <v>4.395437753917292</v>
+        <v>3.801519536795723</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.3163226010101</v>
+        <v>2.04675938463545</v>
       </c>
       <c r="J23">
-        <v>0.3671888485499295</v>
+        <v>0.2589477911316749</v>
       </c>
       <c r="K23">
-        <v>2.115232469452224</v>
+        <v>1.020472333817423</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.293592658610237</v>
+        <v>0.6625953655829449</v>
       </c>
       <c r="C24">
-        <v>0.5049004525085081</v>
+        <v>0.2886100921499803</v>
       </c>
       <c r="D24">
-        <v>0.04148953028232683</v>
+        <v>0.04247617438052487</v>
       </c>
       <c r="E24">
-        <v>0.1482039513575444</v>
+        <v>0.1268826532204628</v>
       </c>
       <c r="F24">
-        <v>3.917609670131412</v>
+        <v>3.692630747922294</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.091115431217091</v>
+        <v>1.99234104019655</v>
       </c>
       <c r="J24">
-        <v>0.316908468707453</v>
+        <v>0.2483591174550099</v>
       </c>
       <c r="K24">
-        <v>1.78776305255775</v>
+        <v>0.949325936871162</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.046224177061561</v>
+        <v>0.6085180375726509</v>
       </c>
       <c r="C25">
-        <v>0.411443466236733</v>
+        <v>0.2680038690493234</v>
       </c>
       <c r="D25">
-        <v>0.0335210354220763</v>
+        <v>0.04197542615496985</v>
       </c>
       <c r="E25">
-        <v>0.122456931426413</v>
+        <v>0.1221896828368401</v>
       </c>
       <c r="F25">
-        <v>3.42973283766878</v>
+        <v>3.579913227787955</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.861646797988769</v>
+        <v>1.935722785736971</v>
       </c>
       <c r="J25">
-        <v>0.2652941834517151</v>
+        <v>0.2374158460400508</v>
       </c>
       <c r="K25">
-        <v>1.448023052043624</v>
+        <v>0.8749835650944817</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5701824574022964</v>
+        <v>0.8698802211104351</v>
       </c>
       <c r="C2">
-        <v>0.2533922926086234</v>
+        <v>0.3454587812150862</v>
       </c>
       <c r="D2">
-        <v>0.0417490464994188</v>
+        <v>0.0277875005280066</v>
       </c>
       <c r="E2">
-        <v>0.1189858056446305</v>
+        <v>0.1042976211943234</v>
       </c>
       <c r="F2">
-        <v>3.500932584304053</v>
+        <v>3.089120876260836</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.895790595755926</v>
+        <v>1.701801131206295</v>
       </c>
       <c r="J2">
-        <v>0.2297640702139745</v>
+        <v>0.2290294787195535</v>
       </c>
       <c r="K2">
-        <v>0.8222846735845906</v>
+        <v>1.206540439944519</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5451197963535037</v>
+        <v>0.7531263460949162</v>
       </c>
       <c r="C3">
-        <v>0.2438347924550044</v>
+        <v>0.3021024252080053</v>
       </c>
       <c r="D3">
-        <v>0.04168486166643959</v>
+        <v>0.02396553815334812</v>
       </c>
       <c r="E3">
-        <v>0.1169706671629136</v>
+        <v>0.09238727508381217</v>
       </c>
       <c r="F3">
-        <v>3.449881042584778</v>
+        <v>2.867701360442922</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.869807077351822</v>
+        <v>1.598091586925335</v>
       </c>
       <c r="J3">
-        <v>0.2248288191615941</v>
+        <v>0.2053150154870238</v>
       </c>
       <c r="K3">
-        <v>0.7878307064500234</v>
+        <v>1.047030052505676</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5301823612165606</v>
+        <v>0.6825480965256645</v>
       </c>
       <c r="C4">
-        <v>0.2381351670242395</v>
+        <v>0.2760363454749211</v>
       </c>
       <c r="D4">
-        <v>0.04168964013971177</v>
+        <v>0.02164454428969265</v>
       </c>
       <c r="E4">
-        <v>0.115810200763061</v>
+        <v>0.08524012128446401</v>
       </c>
       <c r="F4">
-        <v>3.419747242399623</v>
+        <v>2.735750415435845</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.854380392277804</v>
+        <v>1.536379405333065</v>
       </c>
       <c r="J4">
-        <v>0.2219213151690909</v>
+        <v>0.1911146789773213</v>
       </c>
       <c r="K4">
-        <v>0.7672945963020368</v>
+        <v>0.9507662588619326</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5242086208195929</v>
+        <v>0.6540320127670327</v>
       </c>
       <c r="C5">
-        <v>0.2358548031504313</v>
+        <v>0.2655379502522521</v>
       </c>
       <c r="D5">
-        <v>0.04170272962879196</v>
+        <v>0.02070442102923309</v>
       </c>
       <c r="E5">
-        <v>0.1153566117167522</v>
+        <v>0.08236528984852143</v>
       </c>
       <c r="F5">
-        <v>3.407771354022216</v>
+        <v>2.682898262837156</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.848225932598041</v>
+        <v>1.51168304283101</v>
       </c>
       <c r="J5">
-        <v>0.2207672744177387</v>
+        <v>0.1854097642615713</v>
       </c>
       <c r="K5">
-        <v>0.7590813423156249</v>
+        <v>0.9119098063577553</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5232235325287604</v>
+        <v>0.6493108046546752</v>
       </c>
       <c r="C6">
-        <v>0.2354786998621705</v>
+        <v>0.2638017348568553</v>
       </c>
       <c r="D6">
-        <v>0.04170557700537003</v>
+        <v>0.02054863740094603</v>
       </c>
       <c r="E6">
-        <v>0.1152824596107749</v>
+        <v>0.08189009112615864</v>
       </c>
       <c r="F6">
-        <v>3.405801094338642</v>
+        <v>2.674175271311981</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.847211947982871</v>
+        <v>1.507608336455775</v>
       </c>
       <c r="J6">
-        <v>0.2205775042575269</v>
+        <v>0.1844671654162653</v>
       </c>
       <c r="K6">
-        <v>0.7577269161319293</v>
+        <v>0.9054787980943502</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5301013382415078</v>
+        <v>0.6821625689284474</v>
       </c>
       <c r="C7">
-        <v>0.2381042422406949</v>
+        <v>0.2758942793995232</v>
       </c>
       <c r="D7">
-        <v>0.04168977151416442</v>
+        <v>0.02163184334262525</v>
       </c>
       <c r="E7">
-        <v>0.1158040053284957</v>
+        <v>0.08520120277535526</v>
       </c>
       <c r="F7">
-        <v>3.41958450219289</v>
+        <v>2.735034022903932</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.85429685720446</v>
+        <v>1.536044565973555</v>
       </c>
       <c r="J7">
-        <v>0.2219056268028297</v>
+        <v>0.1910374202995726</v>
       </c>
       <c r="K7">
-        <v>0.7671832006478496</v>
+        <v>0.9502407845797052</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5614471710730982</v>
+        <v>0.8293721227582296</v>
       </c>
       <c r="C8">
-        <v>0.2500617569173187</v>
+        <v>0.3303844361651329</v>
       </c>
       <c r="D8">
-        <v>0.04171776230806756</v>
+        <v>0.02646387267163419</v>
       </c>
       <c r="E8">
-        <v>0.1182750306622999</v>
+        <v>0.100153998829267</v>
       </c>
       <c r="F8">
-        <v>3.483077886625182</v>
+        <v>3.011890291151218</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.886721693656966</v>
+        <v>1.665607486643282</v>
       </c>
       <c r="J8">
-        <v>0.2280368672850273</v>
+        <v>0.2207724120401622</v>
       </c>
       <c r="K8">
-        <v>0.8102763745903871</v>
+        <v>1.151162210636983</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6265030687049205</v>
+        <v>1.128527494627377</v>
       </c>
       <c r="C9">
-        <v>0.2748573446419869</v>
+        <v>0.442427475640585</v>
       </c>
       <c r="D9">
-        <v>0.04212205401947244</v>
+        <v>0.03618164898063014</v>
       </c>
       <c r="E9">
-        <v>0.1237313383505985</v>
+        <v>0.1309912812212382</v>
       </c>
       <c r="F9">
-        <v>3.617255044025541</v>
+        <v>3.590869191373343</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.954519826788541</v>
+        <v>1.937375605246245</v>
       </c>
       <c r="J9">
-        <v>0.2410387194016721</v>
+        <v>0.2823784956419928</v>
       </c>
       <c r="K9">
-        <v>0.899707573561642</v>
+        <v>1.560937084181518</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6765029606366113</v>
+        <v>1.357300106019494</v>
       </c>
       <c r="C10">
-        <v>0.2939095837760703</v>
+        <v>0.5291253745729989</v>
       </c>
       <c r="D10">
-        <v>0.04263066759909862</v>
+        <v>0.04352833156413993</v>
       </c>
       <c r="E10">
-        <v>0.1281143861415117</v>
+        <v>0.1548783327068861</v>
       </c>
       <c r="F10">
-        <v>3.721810146115359</v>
+        <v>4.044874385560433</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.006946143028557</v>
+        <v>2.151056320556179</v>
       </c>
       <c r="J10">
-        <v>0.2511952262827464</v>
+        <v>0.3303227981968178</v>
       </c>
       <c r="K10">
-        <v>0.9684466452904132</v>
+        <v>1.875432608235741</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6997317841500035</v>
+        <v>1.463981264832427</v>
       </c>
       <c r="C11">
-        <v>0.3027614001304073</v>
+        <v>0.5698267286053351</v>
       </c>
       <c r="D11">
-        <v>0.04290771334405719</v>
+        <v>0.04693047776582659</v>
       </c>
       <c r="E11">
-        <v>0.130190122069564</v>
+        <v>0.1660900685903925</v>
       </c>
       <c r="F11">
-        <v>3.770690999427075</v>
+        <v>4.259302823204763</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.031374494124023</v>
+        <v>2.252118985093588</v>
       </c>
       <c r="J11">
-        <v>0.2559485712980774</v>
+        <v>0.3528863900928059</v>
       </c>
       <c r="K11">
-        <v>1.000384079038241</v>
+        <v>2.022388985153384</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7085976959400568</v>
+        <v>1.504815889400362</v>
       </c>
       <c r="C12">
-        <v>0.3061401482114263</v>
+        <v>0.5854500480545255</v>
       </c>
       <c r="D12">
-        <v>0.04301916604469369</v>
+        <v>0.04822882563318842</v>
       </c>
       <c r="E12">
-        <v>0.1309879501350579</v>
+        <v>0.1703926370562456</v>
       </c>
       <c r="F12">
-        <v>3.789391709831904</v>
+        <v>4.341794594434788</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.040708903699013</v>
+        <v>2.291019837807383</v>
       </c>
       <c r="J12">
-        <v>0.257767793774434</v>
+        <v>0.3615550214735492</v>
       </c>
       <c r="K12">
-        <v>1.012574408519498</v>
+        <v>2.078688252919932</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7066851630887356</v>
+        <v>1.496000943424775</v>
       </c>
       <c r="C13">
-        <v>0.3054112814934058</v>
+        <v>0.5820754185771193</v>
       </c>
       <c r="D13">
-        <v>0.04299487219142151</v>
+        <v>0.04794873339024974</v>
       </c>
       <c r="E13">
-        <v>0.1308155988117718</v>
+        <v>0.1694633453917191</v>
       </c>
       <c r="F13">
-        <v>3.785355684017958</v>
+        <v>4.323968351023723</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.03869482928539</v>
+        <v>2.282612495941805</v>
       </c>
       <c r="J13">
-        <v>0.2573751347121487</v>
+        <v>0.3596822749246229</v>
       </c>
       <c r="K13">
-        <v>1.009944714275775</v>
+        <v>2.066532728245846</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7004597912516601</v>
+        <v>1.4673316236007</v>
       </c>
       <c r="C14">
-        <v>0.3030388344964479</v>
+        <v>0.5711076683944043</v>
       </c>
       <c r="D14">
-        <v>0.04291675167301889</v>
+        <v>0.04703708413198626</v>
       </c>
       <c r="E14">
-        <v>0.1302555234199332</v>
+        <v>0.1664428579763708</v>
       </c>
       <c r="F14">
-        <v>3.772225692414281</v>
+        <v>4.266062609081928</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.032140756152913</v>
+        <v>2.255306278029565</v>
       </c>
       <c r="J14">
-        <v>0.2560978538037801</v>
+        <v>0.3535969747200767</v>
       </c>
       <c r="K14">
-        <v>1.001385052669605</v>
+        <v>2.027007174199383</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6966556467005489</v>
+        <v>1.449829660090614</v>
       </c>
       <c r="C15">
-        <v>0.3015891320610251</v>
+        <v>0.5644179551742639</v>
       </c>
       <c r="D15">
-        <v>0.04286975171924468</v>
+        <v>0.04648002250971928</v>
       </c>
       <c r="E15">
-        <v>0.129913997331073</v>
+        <v>0.1646003656865105</v>
       </c>
       <c r="F15">
-        <v>3.764208045039197</v>
+        <v>4.230766926300788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.028137144620459</v>
+        <v>2.238664953086086</v>
       </c>
       <c r="J15">
-        <v>0.2553179900152003</v>
+        <v>0.3498862434975223</v>
       </c>
       <c r="K15">
-        <v>0.9961545652661812</v>
+        <v>2.002884160824578</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6749946438270058</v>
+        <v>1.350385867342112</v>
       </c>
       <c r="C16">
-        <v>0.2933348314471971</v>
+        <v>0.5264932519515639</v>
       </c>
       <c r="D16">
-        <v>0.04261347882226119</v>
+        <v>0.04330731774015106</v>
       </c>
       <c r="E16">
-        <v>0.1279803809254005</v>
+        <v>0.154153171465957</v>
       </c>
       <c r="F16">
-        <v>3.71864228141942</v>
+        <v>4.031032910836473</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.005361403245004</v>
+        <v>2.14453556270206</v>
       </c>
       <c r="J16">
-        <v>0.2508872703327398</v>
+        <v>0.328864697452687</v>
       </c>
       <c r="K16">
-        <v>0.9663729201319313</v>
+        <v>1.865914461801225</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6618302671423351</v>
+        <v>1.290090580725661</v>
       </c>
       <c r="C17">
-        <v>0.2883185552115606</v>
+        <v>0.5035705686212282</v>
       </c>
       <c r="D17">
-        <v>0.04246794306956048</v>
+        <v>0.0413772986300458</v>
       </c>
       <c r="E17">
-        <v>0.1268151513384339</v>
+        <v>0.14783752999152</v>
       </c>
       <c r="F17">
-        <v>3.691027520186793</v>
+        <v>3.910631616699987</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.991538045452941</v>
+        <v>2.08782972840973</v>
       </c>
       <c r="J17">
-        <v>0.2482033238400732</v>
+        <v>0.3161724210745405</v>
       </c>
       <c r="K17">
-        <v>0.9482740681225437</v>
+        <v>1.782945725389681</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6543039791338003</v>
+        <v>1.255652059008014</v>
       </c>
       <c r="C18">
-        <v>0.2854507147490608</v>
+        <v>0.4905029017818094</v>
       </c>
       <c r="D18">
-        <v>0.04238853543471777</v>
+        <v>0.04027276825022597</v>
       </c>
       <c r="E18">
-        <v>0.1261526464234848</v>
+        <v>0.1442369695355907</v>
       </c>
       <c r="F18">
-        <v>3.67526825389632</v>
+        <v>3.842113133725633</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.983641710682463</v>
+        <v>2.0555721756634</v>
       </c>
       <c r="J18">
-        <v>0.2466721109814785</v>
+        <v>0.3089420250820183</v>
       </c>
       <c r="K18">
-        <v>0.9379269138929374</v>
+        <v>1.735584513727389</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6517635208863055</v>
+        <v>1.244031530655093</v>
       </c>
       <c r="C19">
-        <v>0.2844826945350007</v>
+        <v>0.4860976522380724</v>
       </c>
       <c r="D19">
-        <v>0.04236238883667909</v>
+        <v>0.03989970937409026</v>
       </c>
       <c r="E19">
-        <v>0.1259296562824446</v>
+        <v>0.1430231748141892</v>
       </c>
       <c r="F19">
-        <v>3.669953705260127</v>
+        <v>3.819035388666578</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.980977488366761</v>
+        <v>2.044709660639015</v>
       </c>
       <c r="J19">
-        <v>0.2461558164631867</v>
+        <v>0.3065054804678624</v>
       </c>
       <c r="K19">
-        <v>0.9344343267473221</v>
+        <v>1.719608095967345</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.66322692625576</v>
+        <v>1.296483676935765</v>
       </c>
       <c r="C20">
-        <v>0.2888507454326259</v>
+        <v>0.5059984334251624</v>
       </c>
       <c r="D20">
-        <v>0.0424829906893649</v>
+        <v>0.04158216689176442</v>
       </c>
       <c r="E20">
-        <v>0.1269383945088478</v>
+        <v>0.1485064759187793</v>
       </c>
       <c r="F20">
-        <v>3.693954316266428</v>
+        <v>3.923371583587198</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.99300392105981</v>
+        <v>2.093828572649471</v>
       </c>
       <c r="J20">
-        <v>0.2484877378484356</v>
+        <v>0.3175161950849343</v>
       </c>
       <c r="K20">
-        <v>0.9501942173286864</v>
+        <v>1.791739985625497</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7022864423291253</v>
+        <v>1.475740119574226</v>
       </c>
       <c r="C21">
-        <v>0.3037349520891723</v>
+        <v>0.5743231972591332</v>
       </c>
       <c r="D21">
-        <v>0.04293952023764547</v>
+        <v>0.04730457360785323</v>
       </c>
       <c r="E21">
-        <v>0.1304197109469598</v>
+        <v>0.1673284412891149</v>
       </c>
       <c r="F21">
-        <v>3.776077108309607</v>
+        <v>4.283034517626817</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.034063563755922</v>
+        <v>2.263309014125866</v>
       </c>
       <c r="J21">
-        <v>0.2564724994060015</v>
+        <v>0.3553808654184536</v>
       </c>
       <c r="K21">
-        <v>1.003896616285346</v>
+        <v>2.038598369410835</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7282201889410942</v>
+        <v>1.595474281941677</v>
       </c>
       <c r="C22">
-        <v>0.3136186876054694</v>
+        <v>0.6202210721705512</v>
       </c>
       <c r="D22">
-        <v>0.04327600565449785</v>
+        <v>0.05110371373515932</v>
       </c>
       <c r="E22">
-        <v>0.1327636947367736</v>
+        <v>0.1799655020551754</v>
       </c>
       <c r="F22">
-        <v>3.830860504690463</v>
+        <v>4.525714107617034</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.061387869039194</v>
+        <v>2.3777916600217</v>
       </c>
       <c r="J22">
-        <v>0.2618031574220652</v>
+        <v>0.3808608623655942</v>
       </c>
       <c r="K22">
-        <v>1.039555794536625</v>
+        <v>2.203773795650307</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7143416618090725</v>
+        <v>1.531311693016448</v>
       </c>
       <c r="C23">
-        <v>0.3083292149437682</v>
+        <v>0.5956001467066869</v>
       </c>
       <c r="D23">
-        <v>0.04309293793789237</v>
+        <v>0.04907012283118206</v>
       </c>
       <c r="E23">
-        <v>0.1315063697509657</v>
+        <v>0.1731875118346409</v>
       </c>
       <c r="F23">
-        <v>3.801519536795723</v>
+        <v>4.395437753917292</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.04675938463545</v>
+        <v>2.316322601010143</v>
       </c>
       <c r="J23">
-        <v>0.2589477911316749</v>
+        <v>0.3671888485499153</v>
       </c>
       <c r="K23">
-        <v>1.020472333817423</v>
+        <v>2.115232469452195</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6625953655829449</v>
+        <v>1.293592658610493</v>
       </c>
       <c r="C24">
-        <v>0.2886100921499803</v>
+        <v>0.5049004525087355</v>
       </c>
       <c r="D24">
-        <v>0.04247617438052487</v>
+        <v>0.04148953028266789</v>
       </c>
       <c r="E24">
-        <v>0.1268826532204628</v>
+        <v>0.1482039513575657</v>
       </c>
       <c r="F24">
-        <v>3.692630747922294</v>
+        <v>3.917609670131384</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.99234104019655</v>
+        <v>2.091115431217119</v>
       </c>
       <c r="J24">
-        <v>0.2483591174550099</v>
+        <v>0.316908468707453</v>
       </c>
       <c r="K24">
-        <v>0.949325936871162</v>
+        <v>1.787763052557892</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6085180375726509</v>
+        <v>1.046224177061674</v>
       </c>
       <c r="C25">
-        <v>0.2680038690493234</v>
+        <v>0.411443466236932</v>
       </c>
       <c r="D25">
-        <v>0.04197542615496985</v>
+        <v>0.03352103542217577</v>
       </c>
       <c r="E25">
-        <v>0.1221896828368401</v>
+        <v>0.1224569314264485</v>
       </c>
       <c r="F25">
-        <v>3.579913227787955</v>
+        <v>3.429732837668752</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.935722785736971</v>
+        <v>1.861646797988783</v>
       </c>
       <c r="J25">
-        <v>0.2374158460400508</v>
+        <v>0.2652941834517861</v>
       </c>
       <c r="K25">
-        <v>0.8749835650944817</v>
+        <v>1.448023052043624</v>
       </c>
       <c r="L25">
         <v>0</v>
